--- a/igcse notes/humanities.xlsx
+++ b/igcse notes/humanities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\bws-elibrary\igcse notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\bws\bookworkshopschoolslibrary.github.io\igcse notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9657800B-F11D-4D25-A4B4-9B1D99210A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023590F-404F-4704-8BD8-97A65458EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27FB2AC1-7DB3-4F8D-A6CF-DEA24FD4B734}"/>
   </bookViews>
@@ -36,30 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\466172-learner-guide-for-cambridge-igcse-art-design-0400-0989.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\cie-igcse-englishliterature-0486-poetry1-v1-znotes.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\cie-igcse-englishliterature-0486-poetry2-v1-znotes.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\cie-igcse-history-0470-theory-v1-znotes.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\cie-igcse-history-0470-ww1depthstudies-v2-znotes.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\music-2018-teachers-guide-to-set-works-and-the-world-focus.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\music-2019-teachers-guide-to-set-works-and-the-world-focus-for-examination-in-2019.pdf</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Downloads\bws-elibrary\igcse notes\humanities_notes\music-teachers-guide-to-set-works-and-the-world-focus-for-examination-in-2017.pdf</t>
-  </si>
-  <si>
     <t>466172-learner-guide-for-cambridge-igcse-art-design-0400-0989.pdf</t>
   </si>
   <si>
@@ -82,6 +58,30 @@
   </si>
   <si>
     <t>music-teachers-guide-to-set-works-and-the-world-focus-for-examination-in-2017.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\466172-learner-guide-for-cambridge-igcse-art-design-0400-0989.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\cie-igcse-englishliterature-0486-poetry1-v1-znotes.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\cie-igcse-englishliterature-0486-poetry2-v1-znotes.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\cie-igcse-history-0470-theory-v1-znotes.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\cie-igcse-history-0470-ww1depthstudies-v2-znotes.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\music-2018-teachers-guide-to-set-works-and-the-world-focus.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\music-2019-teachers-guide-to-set-works-and-the-world-focus-for-examination-in-2019.pdf</t>
+  </si>
+  <si>
+    <t>igcse notes\humanities_notes\music-teachers-guide-to-set-works-and-the-world-focus-for-examination-in-2017.pdf</t>
   </si>
 </sst>
 </file>
@@ -452,15 +452,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="28.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>HYPERLINK(A1,B1)</f>
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C8" si="0">HYPERLINK(A2,B2)</f>
@@ -481,10 +481,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -493,10 +493,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -505,10 +505,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -529,10 +529,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -541,10 +541,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
